--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1255409.295825783</v>
+        <v>-1258268.466020946</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>92.72679982914678</v>
       </c>
       <c r="C2" t="n">
-        <v>211.2228407230371</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>239.8079481415045</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>239.8079481415045</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
     </row>
     <row r="3">
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>131.9000831092824</v>
+        <v>73.20884505778221</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183517</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>116.0764240759506</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>7.960073696547719</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>232.2791855053265</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>124.0596109626758</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>116.5353697882409</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>125.4943829728109</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>121.3663996736606</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>10.19856973202779</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27.67596732500812</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>411.636469273344</v>
       </c>
       <c r="H8" t="n">
-        <v>116.7354827966728</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>69.13208317875603</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>125.4749820264312</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0523514484932</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3818907166712</v>
       </c>
       <c r="H9" t="n">
-        <v>93.29026250281291</v>
+        <v>93.29026250281298</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>21.85817844205299</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>48.87746258874123</v>
+        <v>27.01928414667153</v>
       </c>
       <c r="T9" t="n">
         <v>192.2579975353052</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>9.757772533578544</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3464176409832</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.6055237829752</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>105.9940189144484</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>103.3479163350421</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9188257263405</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>189.7903659609071</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>112.3470522562619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>108.5249257999854</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>29.24923305751745</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>114.7205611007762</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2950343703325</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611471121</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>130.4114987159128</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>126.4267013134142</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>79.1153231220618</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187858</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.231792566018</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="C2" t="n">
-        <v>745.8753877952735</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="D2" t="n">
-        <v>503.6451371472891</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="E2" t="n">
-        <v>503.6451371472891</v>
+        <v>381.107857099194</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4148864993047</v>
+        <v>381.107857099194</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132036</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192954</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605484</v>
+        <v>262.3106962605489</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859556</v>
+        <v>449.0101090859559</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.344321977938</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948968</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P2" t="n">
         <v>924.2476725444232</v>
@@ -4373,7 +4373,7 @@
         <v>959.231792566018</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.231792566018</v>
+        <v>717.0015419180337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.9516010055287</v>
+        <v>502.2208067144167</v>
       </c>
       <c r="C3" t="n">
-        <v>298.9516010055287</v>
+        <v>502.2208067144167</v>
       </c>
       <c r="D3" t="n">
-        <v>298.9516010055287</v>
+        <v>353.2863970531654</v>
       </c>
       <c r="E3" t="n">
-        <v>298.9516010055287</v>
+        <v>194.0489420477099</v>
       </c>
       <c r="F3" t="n">
-        <v>152.4170430324137</v>
+        <v>194.0489420477099</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132036</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="H3" t="n">
         <v>19.18463585132036</v>
@@ -4410,13 +4410,13 @@
         <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450194</v>
+        <v>152.9092351450197</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607131</v>
+        <v>290.1388331607134</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153178</v>
+        <v>469.6361695153179</v>
       </c>
       <c r="N3" t="n">
         <v>668.2929111679822</v>
@@ -4431,28 +4431,28 @@
         <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>959.231792566018</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="S3" t="n">
-        <v>959.231792566018</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="T3" t="n">
-        <v>762.2424967261056</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="U3" t="n">
-        <v>534.1037092372715</v>
+        <v>709.9811054793706</v>
       </c>
       <c r="V3" t="n">
-        <v>298.9516010055287</v>
+        <v>709.9811054793706</v>
       </c>
       <c r="W3" t="n">
-        <v>298.9516010055287</v>
+        <v>709.9811054793706</v>
       </c>
       <c r="X3" t="n">
-        <v>298.9516010055287</v>
+        <v>709.9811054793706</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.9516010055287</v>
+        <v>502.2208067144167</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.9954065385899</v>
+        <v>188.1208187792273</v>
       </c>
       <c r="C4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>60.34504070228357</v>
+        <v>63.7633601226436</v>
       </c>
       <c r="L4" t="n">
-        <v>245.1780356031018</v>
+        <v>248.5963550234618</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223396</v>
+        <v>453.8659557426996</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584438</v>
+        <v>659.6893205788037</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470427</v>
+        <v>833.7842159674025</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456582</v>
+        <v>959.231792566018</v>
       </c>
       <c r="Q4" t="n">
         <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854207</v>
+        <v>841.9828793579871</v>
       </c>
       <c r="S4" t="n">
-        <v>621.313546537826</v>
+        <v>634.5425946103925</v>
       </c>
       <c r="T4" t="n">
-        <v>395.684349850191</v>
+        <v>408.9133979227574</v>
       </c>
       <c r="U4" t="n">
-        <v>395.684349850191</v>
+        <v>408.9133979227574</v>
       </c>
       <c r="V4" t="n">
-        <v>395.684349850191</v>
+        <v>408.9133979227574</v>
       </c>
       <c r="W4" t="n">
-        <v>387.6438713688297</v>
+        <v>408.9133979227574</v>
       </c>
       <c r="X4" t="n">
-        <v>387.6438713688297</v>
+        <v>408.9133979227574</v>
       </c>
       <c r="Y4" t="n">
-        <v>387.6438713688297</v>
+        <v>188.1208187792273</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388467</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672985</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836798</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477.7964466096705</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C6" t="n">
-        <v>303.3434173285435</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>303.3434173285435</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>303.3434173285435</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4674,22 +4674,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442525</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442525</v>
+        <v>918.8071414772178</v>
       </c>
       <c r="V6" t="n">
-        <v>604.5584496125098</v>
+        <v>683.6550332454751</v>
       </c>
       <c r="W6" t="n">
-        <v>477.7964466096705</v>
+        <v>683.6550332454751</v>
       </c>
       <c r="X6" t="n">
-        <v>477.7964466096705</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="Y6" t="n">
-        <v>477.7964466096705</v>
+        <v>475.8035330399423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8038243349426</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8038243349426</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8038243349426</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4756,19 +4756,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001379</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W7" t="n">
-        <v>533.79337523296</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8038243349426</v>
+        <v>257.114133077875</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8038243349426</v>
+        <v>36.32155393434483</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.005253810828</v>
+        <v>1331.48104882361</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.042736870417</v>
+        <v>1331.48104882361</v>
       </c>
       <c r="D8" t="n">
-        <v>993.7770382636661</v>
+        <v>1331.48104882361</v>
       </c>
       <c r="E8" t="n">
-        <v>993.7770382636661</v>
+        <v>945.692796225366</v>
       </c>
       <c r="F8" t="n">
-        <v>582.7911334740586</v>
+        <v>534.7068914357585</v>
       </c>
       <c r="G8" t="n">
-        <v>166.9967200666404</v>
+        <v>118.9124780283402</v>
       </c>
       <c r="H8" t="n">
-        <v>49.08209097909207</v>
+        <v>118.9124780283402</v>
       </c>
       <c r="I8" t="n">
-        <v>49.08209097909207</v>
+        <v>49.08209097909172</v>
       </c>
       <c r="J8" t="n">
-        <v>177.9048803425209</v>
+        <v>177.9048803425193</v>
       </c>
       <c r="K8" t="n">
-        <v>421.7153659811042</v>
+        <v>421.7153659811008</v>
       </c>
       <c r="L8" t="n">
-        <v>761.085594471597</v>
+        <v>761.0855944715911</v>
       </c>
       <c r="M8" t="n">
-        <v>1170.36980075388</v>
+        <v>1170.369800753871</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.890461766107</v>
+        <v>1590.890461766096</v>
       </c>
       <c r="O8" t="n">
-        <v>1974.640936150472</v>
+        <v>1974.640936150459</v>
       </c>
       <c r="P8" t="n">
-        <v>2267.662086797566</v>
+        <v>2267.662086797551</v>
       </c>
       <c r="Q8" t="n">
-        <v>2439.536021171619</v>
+        <v>2439.536021171603</v>
       </c>
       <c r="R8" t="n">
-        <v>2454.104548954603</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.362142867299</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.362142867299</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="U8" t="n">
-        <v>2073.773909080942</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="V8" t="n">
-        <v>2073.773909080942</v>
+        <v>2123.041661611015</v>
       </c>
       <c r="W8" t="n">
-        <v>1721.005253810828</v>
+        <v>2123.041661611015</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.005253810828</v>
+        <v>1749.575903349935</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.005253810828</v>
+        <v>1359.436571374124</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>909.2235158490147</v>
+        <v>931.3024839723004</v>
       </c>
       <c r="C9" t="n">
-        <v>734.7704865678877</v>
+        <v>756.8494546911734</v>
       </c>
       <c r="D9" t="n">
-        <v>585.8360769066364</v>
+        <v>607.9150450299221</v>
       </c>
       <c r="E9" t="n">
-        <v>426.598621901181</v>
+        <v>448.6775900244666</v>
       </c>
       <c r="F9" t="n">
-        <v>280.0640639280659</v>
+        <v>302.1430320513515</v>
       </c>
       <c r="G9" t="n">
-        <v>143.3146793657718</v>
+        <v>165.3936474890573</v>
       </c>
       <c r="H9" t="n">
-        <v>49.08209097909207</v>
+        <v>71.16105910237756</v>
       </c>
       <c r="I9" t="n">
-        <v>49.08209097909207</v>
+        <v>49.08209097909172</v>
       </c>
       <c r="J9" t="n">
-        <v>231.8203398295049</v>
+        <v>231.8203398295038</v>
       </c>
       <c r="K9" t="n">
-        <v>566.8276810895534</v>
+        <v>566.8276810895456</v>
       </c>
       <c r="L9" t="n">
-        <v>851.3220646845643</v>
+        <v>851.322064684555</v>
       </c>
       <c r="M9" t="n">
-        <v>1202.670459779037</v>
+        <v>1202.670459779026</v>
       </c>
       <c r="N9" t="n">
-        <v>1577.726646337628</v>
+        <v>1577.726646337615</v>
       </c>
       <c r="O9" t="n">
-        <v>1898.609988666448</v>
+        <v>1898.609988666433</v>
       </c>
       <c r="P9" t="n">
-        <v>2136.814094217225</v>
+        <v>2136.814094217209</v>
       </c>
       <c r="Q9" t="n">
-        <v>2454.104548954603</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="R9" t="n">
-        <v>2454.104548954603</v>
+        <v>2454.104548954586</v>
       </c>
       <c r="S9" t="n">
-        <v>2404.733374622541</v>
+        <v>2426.812342745827</v>
       </c>
       <c r="T9" t="n">
-        <v>2210.533377112132</v>
+        <v>2232.612345235417</v>
       </c>
       <c r="U9" t="n">
-        <v>1982.440116799514</v>
+        <v>2004.519084922799</v>
       </c>
       <c r="V9" t="n">
-        <v>1747.288008567771</v>
+        <v>1769.366976691057</v>
       </c>
       <c r="W9" t="n">
-        <v>1493.050651839569</v>
+        <v>1515.129619962855</v>
       </c>
       <c r="X9" t="n">
-        <v>1285.199151634037</v>
+        <v>1307.278119757322</v>
       </c>
       <c r="Y9" t="n">
-        <v>1077.438852869083</v>
+        <v>1099.517820992368</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.9379543996382</v>
+        <v>798.9523960230761</v>
       </c>
       <c r="C10" t="n">
-        <v>494.0017714717313</v>
+        <v>630.0162130951692</v>
       </c>
       <c r="D10" t="n">
-        <v>343.8851320593956</v>
+        <v>630.0162130951692</v>
       </c>
       <c r="E10" t="n">
-        <v>195.9720384770024</v>
+        <v>620.1598772026656</v>
       </c>
       <c r="F10" t="n">
-        <v>49.08209097909207</v>
+        <v>473.2699297047553</v>
       </c>
       <c r="G10" t="n">
-        <v>49.08209097909207</v>
+        <v>305.2432452189136</v>
       </c>
       <c r="H10" t="n">
-        <v>49.08209097909207</v>
+        <v>156.1467565492416</v>
       </c>
       <c r="I10" t="n">
-        <v>49.08209097909207</v>
+        <v>49.08209097909172</v>
       </c>
       <c r="J10" t="n">
-        <v>71.76431095485187</v>
+        <v>71.76431095485106</v>
       </c>
       <c r="K10" t="n">
-        <v>238.875002791265</v>
+        <v>238.8750027912635</v>
       </c>
       <c r="L10" t="n">
-        <v>508.2455887473337</v>
+        <v>508.2455887473312</v>
       </c>
       <c r="M10" t="n">
-        <v>802.6482261894333</v>
+        <v>802.6482261894298</v>
       </c>
       <c r="N10" t="n">
-        <v>1095.485243357263</v>
+        <v>1095.485243357258</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.95133024195</v>
+        <v>1349.951330241945</v>
       </c>
       <c r="P10" t="n">
-        <v>1544.170345717846</v>
+        <v>1544.17034571784</v>
       </c>
       <c r="Q10" t="n">
-        <v>1595.202444715674</v>
+        <v>1595.202444715667</v>
       </c>
       <c r="R10" t="n">
-        <v>1595.202444715674</v>
+        <v>1490.810610033807</v>
       </c>
       <c r="S10" t="n">
-        <v>1595.202444715674</v>
+        <v>1490.810610033807</v>
       </c>
       <c r="T10" t="n">
-        <v>1372.052115699169</v>
+        <v>1490.810610033807</v>
       </c>
       <c r="U10" t="n">
-        <v>1372.052115699169</v>
+        <v>1490.810610033807</v>
       </c>
       <c r="V10" t="n">
-        <v>1180.344675334616</v>
+        <v>1490.810610033807</v>
       </c>
       <c r="W10" t="n">
-        <v>890.9275052976556</v>
+        <v>1201.393439996846</v>
       </c>
       <c r="X10" t="n">
-        <v>662.9379543996382</v>
+        <v>1201.393439996846</v>
       </c>
       <c r="Y10" t="n">
-        <v>662.9379543996382</v>
+        <v>980.6008608533158</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5072,7 +5072,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>982.1492342949679</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C13" t="n">
-        <v>813.213051367061</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>663.0964119547252</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5227,22 +5227,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949679</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="14">
@@ -5255,43 +5255,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,25 +5300,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
         <v>589.1422692637307</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>265.073174061852</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400771</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121702</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>411.963121559761</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>411.963121559761</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>265.0731740618506</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673058</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814783017</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038402</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797804</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487573</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510514</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854712</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648825</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611864</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713847</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703169</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,10 +6786,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
         <v>782.551295565682</v>
@@ -7084,16 +7084,16 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,10 +7208,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345475</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7369,7 +7369,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,43 +7801,43 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954144</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928483</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923452</v>
+        <v>66.78462588923483</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>46.25131710763584</v>
+        <v>49.70416500698943</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.8901104783981</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>159.4730397800955</v>
+        <v>159.4730397800901</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>23.88659178320805</v>
+        <v>23.88659178320853</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>290.0070418343338</v>
       </c>
       <c r="C2" t="n">
-        <v>154.0500510479704</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791784</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307573</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002069</v>
+        <v>125.1861839494257</v>
       </c>
       <c r="G2" t="n">
         <v>173.1089558044323</v>
       </c>
       <c r="H2" t="n">
-        <v>82.95091516264139</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>146.4299905145491</v>
       </c>
     </row>
     <row r="3">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-2.216875867721144e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>34.08691039030731</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856043</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.8640922513186</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.32043864787988</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.2749052347528</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>99.28295407562294</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1242487.499862494</v>
+        <v>1242487.499862493</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1242487.499862493</v>
+        <v>1242487.499862494</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1242487.499862493</v>
+        <v>1242487.499862494</v>
       </c>
     </row>
     <row r="12">
@@ -26317,22 +26317,22 @@
         <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="G2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800888</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395223</v>
+        <v>26462.50553395221</v>
       </c>
       <c r="D3" t="n">
-        <v>363812.929096984</v>
+        <v>363812.9290969797</v>
       </c>
       <c r="E3" t="n">
-        <v>533304.2467061828</v>
+        <v>533304.246706187</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353576</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.621870944914</v>
+        <v>6152.621870944925</v>
       </c>
       <c r="L3" t="n">
-        <v>107962.051990038</v>
+        <v>107962.0519900368</v>
       </c>
       <c r="M3" t="n">
-        <v>139350.4287231641</v>
+        <v>139350.4287231652</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178012.5862349585</v>
+        <v>178012.5862349586</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>150392.4003638319</v>
+        <v>150392.4003638331</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181823</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181815</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181817</v>
@@ -26448,16 +26448,16 @@
         <v>20377.77944491161</v>
       </c>
       <c r="M4" t="n">
+        <v>20377.7794449116</v>
+      </c>
+      <c r="N4" t="n">
         <v>20377.77944491161</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>20377.7794449116</v>
       </c>
-      <c r="O4" t="n">
-        <v>20377.77944491161</v>
-      </c>
       <c r="P4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491163</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>90811.24525228252</v>
+        <v>90811.24525228218</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-739077.8061445312</v>
+        <v>-739437.8891602486</v>
       </c>
       <c r="C6" t="n">
         <v>-157792.6754260898</v>
       </c>
       <c r="D6" t="n">
-        <v>-420282.1764936346</v>
+        <v>-420282.1764936313</v>
       </c>
       <c r="E6" t="n">
-        <v>-465205.7117816567</v>
+        <v>-465240.4497070966</v>
       </c>
       <c r="F6" t="n">
-        <v>68098.53492452603</v>
+        <v>68063.79699909037</v>
       </c>
       <c r="G6" t="n">
-        <v>68098.53492452619</v>
+        <v>68063.79699909058</v>
       </c>
       <c r="H6" t="n">
-        <v>68098.5349245261</v>
+        <v>68063.79699909037</v>
       </c>
       <c r="I6" t="n">
-        <v>68098.53492452613</v>
+        <v>68063.79699909035</v>
       </c>
       <c r="J6" t="n">
-        <v>5354.224140990278</v>
+        <v>5319.486215554585</v>
       </c>
       <c r="K6" t="n">
-        <v>61945.91305358111</v>
+        <v>61911.17512814543</v>
       </c>
       <c r="L6" t="n">
-        <v>-46769.54906940144</v>
+        <v>-46769.54906940027</v>
       </c>
       <c r="M6" t="n">
-        <v>-78157.92580252749</v>
+        <v>-78157.92580252857</v>
       </c>
       <c r="N6" t="n">
-        <v>61192.50292063665</v>
+        <v>61192.50292063662</v>
       </c>
       <c r="O6" t="n">
+        <v>61192.50292063662</v>
+      </c>
+      <c r="P6" t="n">
         <v>61192.50292063659</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61192.50292063665</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
-      </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>911.9842251455299</v>
+        <v>911.9842251455262</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>613.5261372386508</v>
+        <v>613.5261372386465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380645</v>
       </c>
       <c r="C3" t="n">
         <v>20.57891343141375</v>
       </c>
       <c r="D3" t="n">
-        <v>297.9292113760515</v>
+        <v>297.929211376048</v>
       </c>
       <c r="E3" t="n">
-        <v>455.9912751961441</v>
+        <v>455.9912751961477</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="D4" t="n">
-        <v>349.8122572371446</v>
+        <v>349.8122572371404</v>
       </c>
       <c r="E4" t="n">
-        <v>559.1821508609978</v>
+        <v>559.1821508610021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415043</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="L4" t="n">
-        <v>349.8122572371449</v>
+        <v>349.8122572371404</v>
       </c>
       <c r="M4" t="n">
-        <v>559.1821508609978</v>
+        <v>559.1821508610021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000169</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="L4" t="n">
-        <v>349.8122572371446</v>
+        <v>349.8122572371404</v>
       </c>
       <c r="M4" t="n">
-        <v>559.1821508609978</v>
+        <v>559.1821508610021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>281.6898617922857</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>232.0899689125742</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>4.166900555087864</v>
+        <v>62.85813860658806</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958671</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>13.09675759184078</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>278.5629246400433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>174.596860236385</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>109.3191177153137</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>126.2006001881087</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>25.06756297290858</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27828,19 +27828,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>215.5110856570094</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>355.0578743384725</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>185.1921496878516</v>
+        <v>301.9276324845245</v>
       </c>
       <c r="I8" t="n">
-        <v>69.13208317875547</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>125.4749820264315</v>
       </c>
       <c r="T8" t="n">
-        <v>207.0467603356909</v>
+        <v>207.046760335691</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0523514484932</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>21.85817844205272</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>86.36935763310305</v>
+        <v>108.2275360751729</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>136.6761901129906</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3464176409832</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.6055237829752</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>105.9940189144482</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>103.3479163350418</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.3563724696939</v>
+        <v>195.356372469694</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9188257263405</v>
       </c>
       <c r="U10" t="n">
         <v>286.2293259900831</v>
       </c>
       <c r="V10" t="n">
-        <v>62.34727736292086</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.078366212864626e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.00905762951896e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29518,13 +29518,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,37 +31045,37 @@
         <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651553</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937399</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.4869768779018</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.5024309712527</v>
       </c>
       <c r="M2" t="n">
         <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359666</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822515</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.0858495426697</v>
       </c>
       <c r="Q2" t="n">
         <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411495</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810512</v>
       </c>
       <c r="T2" t="n">
         <v>10.44398644916533</v>
@@ -31121,10 +31121,10 @@
         <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>12.328626159853</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182837</v>
       </c>
       <c r="J3" t="n">
         <v>120.6044214847382</v>
@@ -31133,34 +31133,34 @@
         <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512819</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842451</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.005087490065</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947074</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671571</v>
       </c>
       <c r="Q3" t="n">
         <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080797</v>
       </c>
       <c r="S3" t="n">
         <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308312</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897143</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,13 +31200,13 @@
         <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207007</v>
       </c>
       <c r="I4" t="n">
         <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490372</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
@@ -31218,7 +31218,7 @@
         <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441089</v>
       </c>
       <c r="O4" t="n">
         <v>151.2683017714136</v>
@@ -31227,16 +31227,16 @@
         <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104774</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937813</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685359</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.57268470752279</v>
       </c>
       <c r="U4" t="n">
         <v>0.05837469839390805</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.666268241791072</v>
+        <v>3.666268241791057</v>
       </c>
       <c r="H8" t="n">
-        <v>37.54716963124282</v>
+        <v>37.54716963124267</v>
       </c>
       <c r="I8" t="n">
-        <v>141.3438063916504</v>
+        <v>141.3438063916499</v>
       </c>
       <c r="J8" t="n">
-        <v>311.1699341867153</v>
+        <v>311.169934186714</v>
       </c>
       <c r="K8" t="n">
-        <v>466.3630688617314</v>
+        <v>466.3630688617296</v>
       </c>
       <c r="L8" t="n">
-        <v>578.5646255664451</v>
+        <v>578.5646255664428</v>
       </c>
       <c r="M8" t="n">
-        <v>643.7646234113971</v>
+        <v>643.7646234113945</v>
       </c>
       <c r="N8" t="n">
-        <v>654.181408053386</v>
+        <v>654.1814080533834</v>
       </c>
       <c r="O8" t="n">
-        <v>617.724953224076</v>
+        <v>617.7249532240735</v>
       </c>
       <c r="P8" t="n">
-        <v>527.2139560048588</v>
+        <v>527.2139560048568</v>
       </c>
       <c r="Q8" t="n">
-        <v>395.9157245957159</v>
+        <v>395.9157245957143</v>
       </c>
       <c r="R8" t="n">
-        <v>230.3012224434086</v>
+        <v>230.3012224434077</v>
       </c>
       <c r="S8" t="n">
-        <v>83.54508755981414</v>
+        <v>83.54508755981381</v>
       </c>
       <c r="T8" t="n">
-        <v>16.04908922844043</v>
+        <v>16.04908922844036</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2933014593432857</v>
+        <v>0.2933014593432846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.961626446539442</v>
+        <v>1.961626446539434</v>
       </c>
       <c r="H9" t="n">
-        <v>18.94518173368356</v>
+        <v>18.94518173368348</v>
       </c>
       <c r="I9" t="n">
-        <v>67.53845440936236</v>
+        <v>67.53845440936209</v>
       </c>
       <c r="J9" t="n">
-        <v>185.3306810741497</v>
+        <v>185.3306810741489</v>
       </c>
       <c r="K9" t="n">
-        <v>316.7596529922922</v>
+        <v>316.759652992291</v>
       </c>
       <c r="L9" t="n">
-        <v>425.9224440172591</v>
+        <v>425.9224440172574</v>
       </c>
       <c r="M9" t="n">
-        <v>497.0314027043137</v>
+        <v>497.0314027043117</v>
       </c>
       <c r="N9" t="n">
-        <v>510.1863449707998</v>
+        <v>510.1863449707978</v>
       </c>
       <c r="O9" t="n">
-        <v>466.7208326553732</v>
+        <v>466.7208326553713</v>
       </c>
       <c r="P9" t="n">
-        <v>374.5846150413781</v>
+        <v>374.5846150413767</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.3998951758066</v>
+        <v>250.3998951758057</v>
       </c>
       <c r="R9" t="n">
-        <v>121.7929121807559</v>
+        <v>121.7929121807554</v>
       </c>
       <c r="S9" t="n">
-        <v>36.43635088199355</v>
+        <v>36.43635088199341</v>
       </c>
       <c r="T9" t="n">
-        <v>7.906731159516431</v>
+        <v>7.906731159516399</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1290543714828581</v>
+        <v>0.1290543714828575</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.644561717475546</v>
+        <v>1.644561717475539</v>
       </c>
       <c r="H10" t="n">
-        <v>14.62164872446441</v>
+        <v>14.62164872446435</v>
       </c>
       <c r="I10" t="n">
-        <v>49.45645601281006</v>
+        <v>49.45645601280986</v>
       </c>
       <c r="J10" t="n">
-        <v>116.2705134255211</v>
+        <v>116.2705134255206</v>
       </c>
       <c r="K10" t="n">
-        <v>191.0681704485224</v>
+        <v>191.0681704485217</v>
       </c>
       <c r="L10" t="n">
-        <v>244.5014757054098</v>
+        <v>244.5014757054088</v>
       </c>
       <c r="M10" t="n">
-        <v>257.7925244948257</v>
+        <v>257.7925244948247</v>
       </c>
       <c r="N10" t="n">
-        <v>251.6627944569625</v>
+        <v>251.6627944569615</v>
       </c>
       <c r="O10" t="n">
-        <v>232.4513234846345</v>
+        <v>232.4513234846335</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9022644481332</v>
+        <v>198.9022644481324</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.709617996975</v>
+        <v>137.7096179969745</v>
       </c>
       <c r="R10" t="n">
-        <v>73.9454750421277</v>
+        <v>73.9454750421274</v>
       </c>
       <c r="S10" t="n">
-        <v>28.66022556727836</v>
+        <v>28.66022556727825</v>
       </c>
       <c r="T10" t="n">
-        <v>7.026763701940966</v>
+        <v>7.026763701940937</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08970336640775713</v>
+        <v>0.08970336640775678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705364</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292123</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012655</v>
       </c>
       <c r="M2" t="n">
         <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.2971847393757</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.8879043605648</v>
       </c>
       <c r="P2" t="n">
         <v>111.8528537874002</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219182</v>
+        <v>135.0753528219185</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
@@ -34787,7 +34787,7 @@
         <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067317</v>
       </c>
       <c r="O3" t="n">
         <v>161.123548150263</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>22.96660727472405</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.57616651612445</v>
+        <v>45.02901441547802</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493113</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233375</v>
       </c>
       <c r="O4" t="n">
         <v>175.8534296854533</v>
@@ -34875,7 +34875,7 @@
         <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>130.124029660029</v>
+        <v>130.1240296600278</v>
       </c>
       <c r="K8" t="n">
-        <v>246.2732178167509</v>
+        <v>246.273217816749</v>
       </c>
       <c r="L8" t="n">
-        <v>342.7982105964579</v>
+        <v>342.7982105964556</v>
       </c>
       <c r="M8" t="n">
-        <v>413.4183901841244</v>
+        <v>413.4183901841218</v>
       </c>
       <c r="N8" t="n">
-        <v>424.7683444567951</v>
+        <v>424.7683444567925</v>
       </c>
       <c r="O8" t="n">
-        <v>387.6267418023892</v>
+        <v>387.6267418023867</v>
       </c>
       <c r="P8" t="n">
-        <v>295.9809602495893</v>
+        <v>295.9809602495872</v>
       </c>
       <c r="Q8" t="n">
-        <v>173.6100347212664</v>
+        <v>173.6100347212648</v>
       </c>
       <c r="R8" t="n">
-        <v>14.71568462927652</v>
+        <v>14.71568462927559</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>184.5840897478918</v>
+        <v>184.5840897478911</v>
       </c>
       <c r="K9" t="n">
-        <v>338.3912537980287</v>
+        <v>338.391253798022</v>
       </c>
       <c r="L9" t="n">
-        <v>287.3680642373849</v>
+        <v>287.3680642373832</v>
       </c>
       <c r="M9" t="n">
-        <v>354.8973687822954</v>
+        <v>354.8973687822934</v>
       </c>
       <c r="N9" t="n">
-        <v>378.8446328874664</v>
+        <v>378.8446328874645</v>
       </c>
       <c r="O9" t="n">
-        <v>324.1245882109288</v>
+        <v>324.1245882109269</v>
       </c>
       <c r="P9" t="n">
-        <v>240.6102076270479</v>
+        <v>240.6102076270464</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.4954088256342</v>
+        <v>320.4954088256333</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>22.91133330884828</v>
+        <v>22.91133330884782</v>
       </c>
       <c r="K10" t="n">
-        <v>168.7986786226396</v>
+        <v>168.7986786226388</v>
       </c>
       <c r="L10" t="n">
-        <v>272.0915009657259</v>
+        <v>272.0915009657249</v>
       </c>
       <c r="M10" t="n">
-        <v>297.3764014566663</v>
+        <v>297.3764014566653</v>
       </c>
       <c r="N10" t="n">
-        <v>295.7949668361911</v>
+        <v>295.7949668361901</v>
       </c>
       <c r="O10" t="n">
-        <v>257.0364513986741</v>
+        <v>257.0364513986732</v>
       </c>
       <c r="P10" t="n">
-        <v>196.1808237130267</v>
+        <v>196.1808237130259</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.54757474528061</v>
+        <v>51.54757474528007</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295937</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899063</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
